--- a/imageCreationExcel/back/110/110_11.xlsx
+++ b/imageCreationExcel/back/110/110_11.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.705008360956074</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4171835109659751</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>17.89376922082667</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_8_gamma0.705_sharpness0.417_equalization17.894.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8216087741386737</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8954312823327572</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20.10018372370712</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_3_gamma0.822_sharpness0.895_equalization20.1.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.066254272817971</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.789049653115108</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.523133071361386</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_contrast1.066_sharpness0.789_equalization8.523.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29.43872877557152</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.508948593789086</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.6586938308126482</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_brightness29.439_gamma0.509_sharpness0.659.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.012159502061463</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.749082089938694</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6134737894659066</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_contrast1.012_gamma0.749_sharpness0.613.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.83929605275706</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.087357976982808</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.1678187539611812</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_I_brightness14.839_contrast1.087_sharpness0.168.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.091081720110126</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6465805846162208</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>31.94245027359942</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_contrast1.091_gamma0.647_equalization31.942.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26.56707039788442</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7806542812319376</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.4300910267733443</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_B_brightness26.567_gamma0.781_sharpness0.43.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,16 +822,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8929068542353139</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6253407948484484</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>23.32450732196979</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_contrast0.893_gamma0.625_equalization23.325.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.991740329782342</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6565277712662433</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.02816011390359538</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_brightness3.992_gamma0.657_sharpness0.028.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.148878870994779</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6755671653376666</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18.76805668336457</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_1_contrast1.149_gamma0.676_equalization18.768.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19.83566453998038</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.148032543144798</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.972904442465345</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_3_brightness19.836_contrast1.148_gamma0.973.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8039698137034249</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5060816316927891</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4916625604233023</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_contrast0.804_gamma0.506_sharpness0.492.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,15 +1041,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27.83315556918529</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.074267365129114</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.3237483475064826</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_brightness27.833_contrast1.074_sharpness0.324.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27.54719676768745</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9800377202834194</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7525508270435128</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_B_brightness27.547_contrast0.98_sharpness0.753.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9947777421273295</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.077930250106265</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8164649561506458</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_contrast0.995_gamma1.078_sharpness0.816.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.868575754801729</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9885610737860446</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6552447848344143</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_9_brightness3.869_contrast0.989_gamma0.655.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9372226752277172</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.3063237311677852</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>14.53290581699846</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_1_contrast0.937_sharpness0.306_equalization14.533.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.16592878048311</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.125310150534921</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.7108002651183272</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_1_brightness10.166_contrast1.125_gamma0.711.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22.69198525223427</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5874568839384211</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7292550517134954</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_2_brightness22.692_gamma0.587_sharpness0.729.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.036918157173823</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9990692989022089</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8446590287133832</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_contrast1.037_gamma0.999_sharpness0.845.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.037641600400322</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.771417240306618</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>16.34428725215849</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_0_gamma1.038_sharpness0.771_equalization16.344.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17.55632081191327</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.109585609232268</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.9414182119632699</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_brightness17.556_contrast1.11_gamma0.941.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,24 +1452,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6425109499626854</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.280746341091326</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>30.87655924327465</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_B_gamma0.643_sharpness0.281_equalization30.877.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8242075566972338</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6527343816699633</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12.71472593931866</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_8_contrast0.824_gamma0.653_equalization12.715.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18.9549492635798</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8776942356286053</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.05504568231446332</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_brightness18.955_contrast0.878_sharpness0.055.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.010371782744457</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.087483268577937</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3666178982686362</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_contrast1.01_gamma1.087_sharpness0.367.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21.9080875707166</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.023551036036346</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.84376282098594</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_brightness21.908_contrast1.024_sharpness0.844.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15.61921811710206</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8924012268734183</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.382342369244757</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_3_brightness15.619_contrast0.892_sharpness0.382.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9688149102863799</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8071003838482451</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.4210427074317532</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_contrast0.969_gamma0.807_sharpness0.421.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6683811432580287</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.2832818612760999</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10.45081822212164</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_gamma0.668_sharpness0.283_equalization10.451.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15.8336538480855</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.186759068390522</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.01746563970209743</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_9_brightness15.834_contrast1.187_sharpness0.017.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,30 +1839,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>29.60434314253637</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.943204692821714</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.6721263779806093</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_2_brightness29.604_contrast0.943_gamma0.672.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9074615389391243</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.3463724624593142</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>19.51881125485983</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_0_gamma0.907_sharpness0.346_equalization19.519.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>24.9538336053055</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9352651151462413</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.8617438642427545</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_brightness24.954_contrast0.935_sharpness0.862.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.051154116100001</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.2797230562686278</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>21.73061519309601</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_8_contrast1.051_sharpness0.28_equalization21.731.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,30 +2007,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25.73394798494811</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.679650057684974</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.7523294277800635</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_brightness25.734_gamma0.68_sharpness0.752.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.055057751644149</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8250048120119107</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>18.34975045830548</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_T_contrast1.055_gamma0.825_equalization18.35.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.014259457570826</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7740169195315637</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9.183405493917942</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_8_contrast1.014_sharpness0.774_equalization9.183.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5715993499674431</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3037558274418469</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22.80851495666696</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_gamma0.572_sharpness0.304_equalization22.809.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28.04546813668175</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.048251087890393</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.9522308468804704</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_brightness28.045_contrast1.048_gamma0.952.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.052622107240279</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8355835502233359</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.02528282565504388</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_P_contrast1.053_gamma0.836_sharpness0.025.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,15 +2259,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.024266028798814</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8118930005154449</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>13.58918010179428</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_C_contrast1.024_gamma0.812_equalization13.589.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19.97829137264493</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9933996533679046</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.9250995169619881</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_T_brightness19.978_contrast0.993_gamma0.925.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2334,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>11.52482449434674</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8219740545006364</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5203274337242708</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_brightness11.525_contrast0.822_sharpness0.52.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16.04103829026829</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9827147854520903</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.6899619180543249</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_brightness16.041_contrast0.983_sharpness0.69.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.034068009017112</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.020061118583938</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>25.56651535989291</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_contrast1.034_gamma1.02_equalization25.567.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.7727354706898627</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.7661465731869073</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>14.69856686073923</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_1_gamma0.773_sharpness0.766_equalization14.699.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
